--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD54DA9-D6C9-4BB3-918A-F89AB063DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DF6CD-C4CB-4780-93DD-14C510A9B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="4170" windowWidth="19200" windowHeight="11350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>My arm feels pain and my heart goes deep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX/Walking1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +407,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -461,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DF6CD-C4CB-4780-93DD-14C510A9B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0292FB-AAAA-448C-9CA5-C3219EEB5A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="4170" windowWidth="19200" windowHeight="11350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="4245" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,43 +43,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a playtest!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I hate writing and reading CSV,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yeah~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AudioPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SFX/GetThings_1</t>
-  </si>
-  <si>
-    <t>SFX/GetThings_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nice, everything is done.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My arm feels pain and my heart goes deep.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>My head… hurts.</t>
   </si>
   <si>
     <t>SFX/Walking1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think it is some sort of malware.</t>
+  </si>
+  <si>
+    <t>It's... eroding my body.</t>
+  </si>
+  <si>
+    <t>I need to finish the work immediately.</t>
+  </si>
+  <si>
+    <t>I can feel it...</t>
+  </si>
+  <si>
+    <t>It is combining with my body.</t>
+  </si>
+  <si>
+    <t>Something is different in my head.</t>
+  </si>
+  <si>
+    <t>I need to survive in this abnormal domain.</t>
+  </si>
+  <si>
+    <t>No matter what I need to do.</t>
+  </si>
+  <si>
+    <t>I will ascend above the heights of the clouds.</t>
+  </si>
+  <si>
+    <t>I will be like the Most High.</t>
+  </si>
+  <si>
+    <t>This is why I called myself Phosphorus.</t>
+  </si>
+  <si>
+    <t>With this power, I could achieve it.</t>
+  </si>
+  <si>
+    <t>It is the taste of holographic pumpkin cake.</t>
+  </si>
+  <si>
+    <t>Reduced cream and sweetness.</t>
+  </si>
+  <si>
+    <t>Not a popular flavour, but it is my favourite.</t>
+  </si>
+  <si>
+    <t>The first Halloween in the Another Eden…</t>
+  </si>
+  <si>
+    <t>I received such a cake from my "neighbours".</t>
+  </si>
+  <si>
+    <t>It was sent from my girlfriend.</t>
+  </si>
+  <si>
+    <t>Please, stay neutral between them.</t>
+  </si>
+  <si>
+    <t>It's their business, not yours.</t>
+  </si>
+  <si>
+    <t>I am so glad that I listened to her that day.</t>
+  </si>
+  <si>
+    <t>Because next day, the Infamous War happened.</t>
+  </si>
+  <si>
+    <t>I heard their screams and cries.</t>
+  </si>
+  <si>
+    <t>They were shattered into pieces in front of me.</t>
+  </si>
+  <si>
+    <t>Then, those pieces gone into someone's body.</t>
+  </si>
+  <si>
+    <t>A giant tentacle grown from his head.</t>
+  </si>
+  <si>
+    <t>It twisted over his arm and became solid.</t>
+  </si>
+  <si>
+    <t>M-Phi.</t>
+  </si>
+  <si>
+    <t>Metamorphosis of the users.</t>
+  </si>
+  <si>
+    <t>Penetration to their enemies.</t>
+  </si>
+  <si>
+    <t>Hijacking enemies' codes to evolve.</t>
+  </si>
+  <si>
+    <t>Infinite desire of mankind.</t>
+  </si>
+  <si>
+    <t>It seems that there are survivors.</t>
+  </si>
+  <si>
+    <t>They survived the Infamous War.</t>
+  </si>
+  <si>
+    <t>But they did not stop fighting.</t>
+  </si>
+  <si>
+    <t>They killed each other to evolve.</t>
+  </si>
+  <si>
+    <t>Eventually, only one person survived.</t>
+  </si>
+  <si>
+    <t>Lathyar.</t>
   </si>
 </sst>
 </file>
@@ -404,20 +489,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -431,61 +516,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -496,81 +581,81 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -580,45 +665,521 @@
       <c r="C10">
         <v>-1</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>-1</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0292FB-AAAA-448C-9CA5-C3219EEB5A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43940DB-9D47-49C9-B1D2-30CA540238F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="4245" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="975" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,9 +56,6 @@
     <t>I think it is some sort of malware.</t>
   </si>
   <si>
-    <t>It's... eroding my body.</t>
-  </si>
-  <si>
     <t>I need to finish the work immediately.</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>This is why I called myself Phosphorus.</t>
   </si>
   <si>
-    <t>With this power, I could achieve it.</t>
-  </si>
-  <si>
     <t>It is the taste of holographic pumpkin cake.</t>
   </si>
   <si>
@@ -165,6 +159,27 @@
   </si>
   <si>
     <t>Lathyar.</t>
+  </si>
+  <si>
+    <t>It's... Eroding my body.</t>
+  </si>
+  <si>
+    <t>Or, I will be destroyed by this world.</t>
+  </si>
+  <si>
+    <t>Is my Neuroware still represents me?</t>
+  </si>
+  <si>
+    <t>It is completely different from several times ago.</t>
+  </si>
+  <si>
+    <t>But there is no doubt that it is my body.</t>
+  </si>
+  <si>
+    <t>I need… more…</t>
+  </si>
+  <si>
+    <t>With this increasing power, I could achieve it.</t>
   </si>
 </sst>
 </file>
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -578,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -589,16 +604,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -615,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -632,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -649,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -666,7 +681,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -683,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -700,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -717,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -734,7 +749,7 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -751,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -768,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -785,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -802,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -819,7 +834,7 @@
         <v>-1</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -836,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -853,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -870,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -887,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -895,7 +910,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -904,7 +919,7 @@
         <v>-1</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -921,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -938,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -955,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -972,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -980,7 +995,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -989,7 +1004,7 @@
         <v>-1</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1006,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1023,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1040,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1057,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1065,7 +1080,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1074,7 +1089,7 @@
         <v>-1</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1091,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1108,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1125,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1142,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1156,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1167,18 +1182,103 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
         <v>-1</v>
       </c>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43940DB-9D47-49C9-B1D2-30CA540238F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304C67FE-136D-4338-854D-97BB37677AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="975" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="3510" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -641,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>-1</v>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304C67FE-136D-4338-854D-97BB37677AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81542C-8417-4C96-9787-DAD4D342E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="3510" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>4</v>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81542C-8417-4C96-9787-DAD4D342E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDC423-C1C6-4302-9BD8-3E398335A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="3510" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="540" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,138 +48,313 @@
   </si>
   <si>
     <t>My head… hurts.</t>
-  </si>
-  <si>
-    <t>SFX/Walking1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I think it is some sort of malware.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's... Eroding my body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I need to finish the work immediately.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or, I will be destroyed by this world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I can feel it...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It is combining with my body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Something is different in my head.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I need to survive in this abnormal domain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is my Neuroware still represents me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is completely different from several times ago.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But there is no doubt that it is my body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need… more…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No matter what I need to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I will ascend above the heights of the clouds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I will be like the Most High.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>This is why I called myself Phosphorus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With this increasing power, I could achieve it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It is the taste of holographic pumpkin cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reduced cream and sweetness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not a popular flavour, but it is my favourite.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The first Halloween in the Another Eden…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I received such a cake from my "neighbours".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It was sent from my girlfriend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please, stay neutral between them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It's their business, not yours.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I am so glad that I listened to her that day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Because next day, the Infamous War happened.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I heard their screams and cries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>They were shattered into pieces in front of me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Then, those pieces gone into someone's body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A giant tentacle grown from his head.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It twisted over his arm and became solid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M-Phi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Metamorphosis of the users.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Penetration to their enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hijacking enemies' codes to evolve.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Infinite desire of mankind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It seems that there are survivors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>They survived the Infamous War.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>But they did not stop fighting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>They killed each other to evolve.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Eventually, only one person survived.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lathyar.</t>
-  </si>
-  <si>
-    <t>It's... Eroding my body.</t>
-  </si>
-  <si>
-    <t>Or, I will be destroyed by this world.</t>
-  </si>
-  <si>
-    <t>Is my Neuroware still represents me?</t>
-  </si>
-  <si>
-    <t>It is completely different from several times ago.</t>
-  </si>
-  <si>
-    <t>But there is no doubt that it is my body.</t>
-  </si>
-  <si>
-    <t>I need… more…</t>
-  </si>
-  <si>
-    <t>With this increasing power, I could achieve it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0003</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0004</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0005</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0006</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0007</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0008</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0009</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0010</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0011</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0012</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0013</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0014</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0015</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0016</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0017</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0018</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0019</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0020</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0021</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0022</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0023</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0024</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0025</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0026</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0027</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0028</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0029</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0030</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0031</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0032</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0033</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0034</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0035</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0036</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0037</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0038</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0039</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0040</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0041</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0042</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0043</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/BL-0044</t>
   </si>
 </sst>
 </file>
@@ -506,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -562,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,10 +788,10 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -630,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -664,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,10 +856,10 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -698,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -715,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,10 +924,10 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -766,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,10 +958,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -817,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -834,10 +1009,10 @@
         <v>-1</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -868,10 +1043,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -885,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,10 +1094,10 @@
         <v>-1</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -936,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -953,10 +1128,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,10 +1179,10 @@
         <v>-1</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1021,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,10 +1247,10 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,10 +1264,10 @@
         <v>-1</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,10 +1332,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,10 +1349,10 @@
         <v>-1</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,10 +1451,10 @@
         <v>-1</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDC423-C1C6-4302-9BD8-3E398335A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42327515-A4A6-4AA1-A624-ADE943B3560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="540" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2565" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It's... Eroding my body.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I need to finish the work immediately.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,138 +219,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sounds/AILines/BL-0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0003</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0004</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0005</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0006</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0007</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0008</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0009</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0010</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0011</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0012</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0013</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0014</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0015</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0016</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0017</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0018</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0019</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0020</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0021</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0022</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0023</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0024</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0025</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0026</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0027</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0028</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0029</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0030</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0031</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0032</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0033</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0034</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0035</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0036</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0037</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0038</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0039</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0040</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0041</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0042</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0043</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/BL-0044</t>
+    <t>It's... eroding my body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/AILines/3</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/4</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/5</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/6</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/7</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/8</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/9</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/10</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/11</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/12</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/13</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/14</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/15</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/16</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/17</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/18</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/19</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/20</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/21</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/22</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/23</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/24</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/25</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/26</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/27</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/28</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/29</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/30</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/31</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/32</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/33</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/34</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/35</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/36</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/37</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/38</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/39</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/40</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/41</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/42</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/43</t>
+  </si>
+  <si>
+    <t>Sounds/AILines/44</t>
   </si>
 </sst>
 </file>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -771,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -788,7 +788,7 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -856,7 +856,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -924,7 +924,7 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>64</v>
@@ -992,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>65</v>
@@ -1009,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -1094,7 +1094,7 @@
         <v>-1</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>77</v>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>78</v>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
         <v>79</v>
@@ -1247,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
         <v>80</v>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
         <v>81</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
         <v>82</v>
@@ -1298,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>83</v>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
         <v>84</v>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
         <v>85</v>
@@ -1349,7 +1349,7 @@
         <v>-1</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
         <v>87</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>88</v>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
         <v>89</v>
@@ -1417,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
         <v>91</v>
@@ -1451,7 +1451,7 @@
         <v>-1</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>

--- a/Assets/Tables/Plot.xlsx
+++ b/Assets/Tables/Plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CooperactiveUnit\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42327515-A4A6-4AA1-A624-ADE943B3560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490229CF-2CEE-4C54-8320-ECCBE4A73707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2565" windowWidth="21525" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,138 +223,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sounds/AILines/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds/AILines/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds/AILines/3</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/4</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/5</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/6</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/7</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/8</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/9</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/10</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/11</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/12</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/13</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/14</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/15</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/16</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/17</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/18</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/19</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/20</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/21</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/22</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/23</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/24</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/25</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/26</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/27</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/28</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/29</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/30</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/31</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/32</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/33</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/34</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/35</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/36</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/37</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/38</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/39</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/40</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/41</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/42</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/43</t>
-  </si>
-  <si>
-    <t>Sounds/AILines/44</t>
+    <t>Sounds/NewAILines/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/3</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/4</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/5</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/6</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/7</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/8</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/9</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/10</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/11</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/12</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/13</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/14</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/15</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/16</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/17</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/18</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/19</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/20</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/21</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/22</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/23</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/24</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/25</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/26</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/27</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/28</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/29</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/30</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/31</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/32</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/33</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/34</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/35</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/36</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/37</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/38</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/39</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/40</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/41</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/42</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/43</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/44</t>
   </si>
 </sst>
 </file>
@@ -681,18 +681,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -777,7 +777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -794,7 +794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -862,7 +862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -913,7 +913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -947,7 +947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -964,7 +964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -981,7 +981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -998,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
